--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5390,7 +5391,6 @@
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>67.55</t>
@@ -5406,6 +5406,1582 @@
       </c>
       <c r="H62" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7363</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5791</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6987,4 +6988,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7804,4 +7805,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7813,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7824,17 +7825,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7844,14 +7865,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.45</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7860,14 +7903,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.7</v>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7876,14 +7941,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.79</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7892,13 +7979,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8706,7 +8707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8717,17 +8718,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8737,14 +8758,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.35</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8753,14 +8796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.45</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8769,14 +8834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.7</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8785,14 +8872,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.79</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8801,13 +8910,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>67</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9523,7 +9524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9534,17 +9535,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9554,14 +9575,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.49</v>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9570,14 +9613,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.35</v>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9586,14 +9651,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.45</v>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9602,14 +9689,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.7</v>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -9618,14 +9727,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>61</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.79</v>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -9634,13 +9765,791 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>67</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600079-人福医药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>3.87</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>9.49</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>9.35</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>6.45</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>37.7</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>30.79</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>61</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>67</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23.5</v>
       </c>
     </row>
@@ -600,6 +617,2520 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0923</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4400</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2307,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3199,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4015,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5591,7 +8122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7958,7 +10489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
